--- a/Result/checksun/居家生活.xlsx
+++ b/Result/checksun/居家生活.xlsx
@@ -11645,7 +11645,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11835,7 +11839,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12025,7 +12033,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12215,7 +12227,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12405,7 +12421,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12595,7 +12615,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12785,7 +12809,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12975,7 +13003,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13165,7 +13197,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13355,7 +13391,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13545,7 +13585,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -22339,7 +22383,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV112" t="inlineStr"/>
+      <c r="AV112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -22529,7 +22577,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV113" t="inlineStr"/>
+      <c r="AV113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -22719,7 +22771,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV114" t="inlineStr"/>
+      <c r="AV114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -22909,7 +22965,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV115" t="inlineStr"/>
+      <c r="AV115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -23099,7 +23159,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV116" t="inlineStr"/>
+      <c r="AV116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -23289,7 +23353,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV117" t="inlineStr"/>
+      <c r="AV117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -23479,7 +23547,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV118" t="inlineStr"/>
+      <c r="AV118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -23669,7 +23741,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV119" t="inlineStr"/>
+      <c r="AV119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -23859,7 +23935,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV120" t="inlineStr"/>
+      <c r="AV120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -24049,7 +24129,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV121" t="inlineStr"/>
+      <c r="AV121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -24239,7 +24323,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV122" t="inlineStr"/>
+      <c r="AV122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -28721,7 +28809,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV145" t="inlineStr"/>
+      <c r="AV145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -28911,7 +29003,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV146" t="inlineStr"/>
+      <c r="AV146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -29101,7 +29197,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV147" t="inlineStr"/>
+      <c r="AV147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -29291,7 +29391,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV148" t="inlineStr"/>
+      <c r="AV148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -29481,7 +29585,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV149" t="inlineStr"/>
+      <c r="AV149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -29671,7 +29779,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV150" t="inlineStr"/>
+      <c r="AV150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -29861,7 +29973,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV151" t="inlineStr"/>
+      <c r="AV151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -30051,7 +30167,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV152" t="inlineStr"/>
+      <c r="AV152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -30241,7 +30361,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV153" t="inlineStr"/>
+      <c r="AV153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -30431,7 +30555,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV154" t="inlineStr"/>
+      <c r="AV154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -30621,7 +30749,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV155" t="inlineStr"/>
+      <c r="AV155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">

--- a/Result/checksun/居家生活.xlsx
+++ b/Result/checksun/居家生活.xlsx
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>17584433</v>
+        <v>12471702</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-3237369</v>
+        <v>-10715628</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-18716695</v>
+        <v>-13852687</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>9852818</v>
+        <v>9622602</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-18140015</v>
+        <v>9737733</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-19615456</v>
+        <v>544462</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-14965549</v>
+        <v>-13526793</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>10661756</v>
+        <v>9753130</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>24479464</v>
+        <v>10621803</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>14735333</v>
+        <v>-14290514</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>17215992</v>
+        <v>35952</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-4319546</v>
+        <v>12125439</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-13271616</v>
+        <v>16294970</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>-20729464</v>
+        <v>34606824</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>27252833</v>
+        <v>32416455</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>41048962</v>
+        <v>47082295</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>47580979</v>
+        <v>68862197</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-14417500</v>
+        <v>10200208</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>-11482376</v>
+        <v>-5430258</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>7755309</v>
+        <v>10145695</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>19581122</v>
+        <v>9016873</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>17515709</v>
+        <v>-6738482</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>13525909</v>
+        <v>7461417</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>5036586</v>
+        <v>-47750141</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>28955403</v>
+        <v>-52131155</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-26869062</v>
+        <v>-55054960</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-71866515</v>
+        <v>-43809627</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-56002951</v>
+        <v>-46814170</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-26382630</v>
+        <v>16302659</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-11916193</v>
+        <v>61086929</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-25083607</v>
+        <v>27093710</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>-1803268</v>
+        <v>46835942</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>39973081</v>
+        <v>58168015</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>34272388</v>
+        <v>55197987</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>44488557</v>
+        <v>71155730</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>33030041</v>
+        <v>24165143</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>-18197111</v>
+        <v>125827024</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-79256749</v>
+        <v>127082199</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-135153754</v>
+        <v>66064915</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-24424623</v>
+        <v>170455253</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>111640489</v>
+        <v>243811396</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>195525970</v>
+        <v>246777258</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>168448758</v>
+        <v>173874414</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>94698459</v>
+        <v>97064874</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>5692699</v>
+        <v>-33212170</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>26431118</v>
+        <v>-157160278</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>37472448</v>
+        <v>-124834311</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>45558589</v>
+        <v>-31094514</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9446,27 +9446,27 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -9489,7 +9489,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>2687</v>
+        <v>1952</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9627,27 +9627,27 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="U51" t="n">
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-190</v>
+        <v>-691</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9808,27 +9808,27 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="U52" t="n">
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-535</v>
+        <v>-36</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -9956,11 +9956,11 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>52.7</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>3.48</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -9987,27 +9987,27 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="U53" t="n">
@@ -10030,7 +10030,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-195</v>
+        <v>-237</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10173,22 +10173,22 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="U54" t="n">
@@ -10201,7 +10201,7 @@
         <v>-8</v>
       </c>
       <c r="X54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-331</v>
+        <v>-330</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10354,22 +10354,22 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.66</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -10382,7 +10382,7 @@
         <v>-23</v>
       </c>
       <c r="X55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-484</v>
+        <v>-44</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10535,22 +10535,22 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="U56" t="n">
@@ -10563,7 +10563,7 @@
         <v>9</v>
       </c>
       <c r="X56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>-540</v>
+        <v>-686</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10716,22 +10716,22 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-1.97</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.49</t>
         </is>
       </c>
       <c r="U57" t="n">
@@ -10754,7 +10754,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>-170</v>
+        <v>-821</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -10897,22 +10897,22 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>-2.35</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>-2.79</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="U58" t="n">
@@ -10935,7 +10935,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>983</v>
+        <v>-792</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11073,27 +11073,27 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>-2.57</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="U59" t="n">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>498</v>
+        <v>-1449</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11254,27 +11254,27 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>-2.51</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>-2.97</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="U60" t="n">
@@ -11297,7 +11297,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>171</v>
+        <v>-350</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11435,27 +11435,27 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>-3.04</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="U61" t="n">
@@ -11478,7 +11478,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-543</v>
+        <v>-1457</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>-92303</v>
+        <v>-11415274</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>1826417</v>
+        <v>-11723088</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-6714019</v>
+        <v>-5622837</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-3512343</v>
+        <v>-234880</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-14246296</v>
+        <v>-9070739</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-7442525</v>
+        <v>6899907</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>-7810628</v>
+        <v>-2840810</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>696791</v>
+        <v>15510364</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>8533707</v>
+        <v>6071243</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>11088091</v>
+        <v>-22104669</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>4478766</v>
+        <v>1254179</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>5808725</v>
+        <v>10884301</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>1328987267</v>
+        <v>1264013776</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>474982771</v>
+        <v>1185347047</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>70637674</v>
+        <v>1324634227</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>-290305730</v>
+        <v>1108493088</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-247108476</v>
+        <v>1675897551</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-413891887</v>
+        <v>1481981903</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>225332239</v>
+        <v>1183641332</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>957472752</v>
+        <v>1546444570</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>1667888440</v>
+        <v>1617752166</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>1173466579</v>
+        <v>390930783</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>965533275</v>
+        <v>289875123</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>227985350</v>
+        <v>722816893</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>-2308</v>
+        <v>-35129</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>-3099</v>
+        <v>-66856</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-386</v>
+        <v>-122260</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>-9222</v>
+        <v>-61066</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-24521</v>
+        <v>-39317</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>-22333</v>
+        <v>-17598</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-23599</v>
+        <v>-38115</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>-39236</v>
+        <v>-17952</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>-99541</v>
+        <v>16482</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>-28245</v>
+        <v>52241</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>24440</v>
+        <v>83565</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>104276</v>
+        <v>157790</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>-446</v>
+        <v>-1547</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>-260</v>
+        <v>-1365</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>-734</v>
+        <v>-713</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>-746</v>
+        <v>-1354</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>-408</v>
+        <v>-611</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>-372</v>
+        <v>76</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>-355</v>
+        <v>106</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>-697</v>
+        <v>-154</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-253</v>
+        <v>1191</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>3084</v>
+        <v>13086</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>9503</v>
+        <v>20568</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>-11731</v>
+        <v>13502</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>4985</v>
+        <v>15315</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>8679</v>
+        <v>15728</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>21050</v>
+        <v>23029</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>5017</v>
+        <v>7943</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21654,7 +21654,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>2386</v>
+        <v>4134</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>4183</v>
+        <v>3868</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>5313</v>
+        <v>3039</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>4663</v>
+        <v>3322</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>-2204</v>
+        <v>-5278</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>-12938375</v>
+        <v>50218338</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>11436946</v>
+        <v>57384832</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>35749725</v>
+        <v>61581843</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>50936853</v>
+        <v>68282451</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>39434455</v>
+        <v>51382360</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>20249434</v>
+        <v>29543330</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>12219860</v>
+        <v>17270463</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -23882,7 +23882,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>6513431</v>
+        <v>7520083</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>5582684</v>
+        <v>3440653</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>5125738</v>
+        <v>4258591</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>5434474</v>
+        <v>5890888</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>3711212</v>
+        <v>9250159</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-1533772</v>
+        <v>-2480088</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-1936541</v>
+        <v>-7127854</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>1673982</v>
+        <v>-4771381</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>5440555</v>
+        <v>-1837581</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>1712086</v>
+        <v>-1609393</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>-3362773</v>
+        <v>-4583226</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>-6386871</v>
+        <v>-7725129</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>-6903399</v>
+        <v>-4945782</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>-3082590</v>
+        <v>-3001153</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-891265</v>
+        <v>-4397914</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>3581920</v>
+        <v>795987</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>1862137</v>
+        <v>-4187351</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>169932</v>
+        <v>157895</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>77990</v>
+        <v>141394</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>52091</v>
+        <v>103211</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27542,7 +27542,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-25507</v>
+        <v>40829</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>19909</v>
+        <v>64081</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>23272</v>
+        <v>43865</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>13470</v>
+        <v>58666</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>43495</v>
+        <v>22437</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>27848</v>
+        <v>16033</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>52866</v>
+        <v>61411</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -28857,7 +28857,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>677</v>
+        <v>21559</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>-7255</v>
+        <v>-7250</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>-631879</v>
+        <v>9434896</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>63.38</t>
+          <t>63.41</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -29416,7 +29416,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>-550826</v>
+        <v>20045110</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>-1602362</v>
+        <v>30645536</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>-633314</v>
+        <v>37860957</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-646381</v>
+        <v>44813909</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>1463389</v>
+        <v>51101698</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>10700089</v>
+        <v>53487971</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30550,7 +30550,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>21242317</v>
+        <v>51401746</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>30784509</v>
+        <v>49963415</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>27794182</v>
+        <v>40094892</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>24217973</v>
+        <v>30357733</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>18853800</v>
+        <v>20073154</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>-4845</v>
+        <v>-12621</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>144</v>
+        <v>-7144</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>-7993</v>
+        <v>5148</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>-4791</v>
+        <v>5109</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-9582</v>
+        <v>13260</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>-3656</v>
+        <v>17314</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>-2985</v>
+        <v>9848</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>2294</v>
+        <v>-11118</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>16797</v>
+        <v>47499</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>12885</v>
+        <v>55495</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>20548</v>
+        <v>64558</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>4173</v>
+        <v>-7826</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33621,22 +33621,22 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="U182" t="n">
@@ -33659,7 +33659,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>1163</v>
+        <v>1456</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33800,22 +33800,22 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="U183" t="n">
@@ -33838,7 +33838,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-304</v>
+        <v>326</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -33979,22 +33979,22 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -34017,7 +34017,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-119</v>
+        <v>568</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34158,22 +34158,22 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U185" t="n">
@@ -34196,7 +34196,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>-284</v>
+        <v>0</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34337,22 +34337,22 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U186" t="n">
@@ -34375,7 +34375,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>-526</v>
+        <v>0</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34516,22 +34516,22 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U187" t="n">
@@ -34544,7 +34544,7 @@
         <v>0</v>
       </c>
       <c r="X187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
@@ -34554,7 +34554,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>-209</v>
+        <v>0</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34695,22 +34695,22 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U188" t="n">
@@ -34723,7 +34723,7 @@
         <v>0</v>
       </c>
       <c r="X188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
@@ -34733,7 +34733,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -34869,27 +34869,27 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U189" t="n">
@@ -34902,7 +34902,7 @@
         <v>0</v>
       </c>
       <c r="X189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
@@ -34912,7 +34912,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>1156</v>
+        <v>0</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35048,27 +35048,27 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U190" t="n">
@@ -35091,7 +35091,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35227,27 +35227,27 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
         <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
           <t>-0.30</t>
-        </is>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>-0.31</t>
         </is>
       </c>
       <c r="U191" t="n">
@@ -35406,22 +35406,22 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="T192" t="inlineStr">
@@ -35550,11 +35550,11 @@
         <v>1.16</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>100</v>
+        <v>5.31</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N193" t="n">
@@ -35581,22 +35581,22 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="T193" t="inlineStr">
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>735</v>
+        <v>13</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
@@ -35984,7 +35984,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>1189</v>
+        <v>283</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36165,7 +36165,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>108</v>
+        <v>-285</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36346,7 +36346,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>516</v>
+        <v>337</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36527,7 +36527,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>-1372</v>
+        <v>735</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36685,7 +36685,7 @@
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="U199" t="n">
@@ -36708,7 +36708,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>-1534</v>
+        <v>668</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="T200" t="inlineStr">
@@ -36889,7 +36889,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>-1238</v>
+        <v>177</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>466</v>
+        <v>1537</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="T202" t="inlineStr">
@@ -37251,7 +37251,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>1141</v>
+        <v>1771</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>1059</v>
+        <v>1196</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37585,12 +37585,12 @@
       </c>
       <c r="S204" t="inlineStr">
         <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
           <t>-0.75</t>
-        </is>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>-0.76</t>
         </is>
       </c>
       <c r="U204" t="n">
@@ -37613,7 +37613,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>1641</v>
+        <v>1270</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37794,7 +37794,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>1061</v>
+        <v>1222</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-179512</v>
+        <v>-356516</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38172,7 +38172,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>-314779</v>
+        <v>-102731</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>37674</v>
+        <v>189505</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>-440935</v>
+        <v>169041</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38739,7 +38739,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>457599</v>
+        <v>557490</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>71318</v>
+        <v>257667</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>263931</v>
+        <v>521954</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>-245551</v>
+        <v>-32649</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>80513</v>
+        <v>46216</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39660,7 +39660,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>346045</v>
+        <v>140541</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>345442</v>
+        <v>150364</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40022,7 +40022,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>105836</v>
+        <v>-143825</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40211,7 +40211,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>-72670</v>
+        <v>41719</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>-81143</v>
+        <v>75063</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>-74765</v>
+        <v>71409</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40778,7 +40778,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>867</v>
+        <v>153103</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>69632</v>
+        <v>138199</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41156,7 +41156,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>123970</v>
+        <v>193837</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>113522</v>
+        <v>82444</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>86574</v>
+        <v>164075</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>22204</v>
+        <v>235489</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>38714</v>
+        <v>231842</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42101,7 +42101,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>-18007</v>
+        <v>252444</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42290,7 +42290,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>47663</v>
+        <v>226176</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -42479,7 +42479,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>-3881</v>
+        <v>19027</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -42668,7 +42668,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>5557</v>
+        <v>22549</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -42857,7 +42857,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>7025</v>
+        <v>18711</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>15495</v>
+        <v>23781</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>17282</v>
+        <v>18793</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43424,7 +43424,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>9679</v>
+        <v>11560</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -43613,7 +43613,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>7413</v>
+        <v>6265</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -43802,7 +43802,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>-290</v>
+        <v>1496</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>2007</v>
+        <v>7532</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44180,7 +44180,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>873</v>
+        <v>4468</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44369,7 +44369,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>1801</v>
+        <v>6845</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -44558,7 +44558,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>-126</v>
+        <v>6616</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>-3479</v>
+        <v>-1788</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -44936,7 +44936,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>141</v>
+        <v>1550</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45125,7 +45125,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>-1055</v>
+        <v>1244</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45314,7 +45314,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>981</v>
+        <v>2816</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>-542</v>
+        <v>2400</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45692,7 +45692,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>1006</v>
+        <v>1990</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -45873,7 +45873,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>710</v>
+        <v>1057</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -46054,7 +46054,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>1951</v>
+        <v>1120</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46235,7 +46235,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>1293</v>
+        <v>-361</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46416,7 +46416,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>1125</v>
+        <v>-110</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46597,7 +46597,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>991</v>
+        <v>94</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46778,7 +46778,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>-309</v>
+        <v>201</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -46926,21 +46926,21 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="S254" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U254" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V254" t="n">
         <v>-45</v>
@@ -46959,7 +46959,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>-124</v>
+        <v>-270</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47015,7 +47015,7 @@
       </c>
       <c r="AO254" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP254" t="n">
@@ -47105,21 +47105,21 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T255" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U255" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V255" t="n">
         <v>-60</v>
@@ -47138,7 +47138,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>90</v>
+        <v>-215</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
       </c>
       <c r="AO255" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP255" t="n">
@@ -47284,21 +47284,21 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="S256" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="T256" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U256" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V256" t="n">
         <v>-57</v>
@@ -47317,7 +47317,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>-327</v>
+        <v>-309</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47373,7 +47373,7 @@
       </c>
       <c r="AO256" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP256" t="n">
@@ -47463,21 +47463,21 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T257" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U257" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V257" t="n">
         <v>-65</v>
@@ -47496,7 +47496,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>-296</v>
+        <v>-243</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="AO257" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP257" t="n">
@@ -47642,21 +47642,21 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T258" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U258" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V258" t="n">
         <v>-37</v>
@@ -47675,7 +47675,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-363</v>
+        <v>-321</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -47731,7 +47731,7 @@
       </c>
       <c r="AO258" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP258" t="n">
@@ -47821,21 +47821,21 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S259" t="inlineStr">
         <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
           <t>-0.13</t>
         </is>
       </c>
-      <c r="T259" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
       <c r="U259" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V259" t="n">
         <v>-6</v>
@@ -47854,7 +47854,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>-5</v>
+        <v>97</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -47910,7 +47910,7 @@
       </c>
       <c r="AO259" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP259" t="n">
@@ -48000,21 +48000,21 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S260" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="T260" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U260" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V260" t="n">
         <v>-14</v>
@@ -48033,7 +48033,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="AO260" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP260" t="n">
@@ -48184,16 +48184,16 @@
       </c>
       <c r="S261" t="inlineStr">
         <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
           <t>-0.14</t>
         </is>
       </c>
-      <c r="T261" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
       <c r="U261" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V261" t="n">
         <v>10</v>
@@ -48212,7 +48212,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48268,7 +48268,7 @@
       </c>
       <c r="AO261" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP261" t="n">
@@ -48353,26 +48353,26 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="S262" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="T262" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="U262" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V262" t="n">
         <v>-14</v>
@@ -48391,7 +48391,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48447,7 +48447,7 @@
       </c>
       <c r="AO262" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP262" t="n">
@@ -48532,26 +48532,26 @@
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U263" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V263" t="n">
         <v>-55</v>
@@ -48570,7 +48570,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>-97</v>
+        <v>-414</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
       </c>
       <c r="AO263" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP263" t="n">
@@ -48711,26 +48711,26 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T264" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U264" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V264" t="n">
         <v>-60</v>
@@ -48739,7 +48739,7 @@
         <v>-52</v>
       </c>
       <c r="X264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y264" t="inlineStr"/>
       <c r="Z264" t="inlineStr"/>
@@ -48749,7 +48749,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>-16</v>
+        <v>-416</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -48805,7 +48805,7 @@
       </c>
       <c r="AO264" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP264" t="n">
@@ -48890,26 +48890,26 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U265" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="V265" t="n">
         <v>-46</v>
@@ -48918,7 +48918,7 @@
         <v>-52</v>
       </c>
       <c r="X265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y265" t="inlineStr"/>
       <c r="Z265" t="inlineStr"/>
@@ -48928,7 +48928,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>79</v>
+        <v>-315</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -48984,7 +48984,7 @@
       </c>
       <c r="AO265" t="inlineStr">
         <is>
-          <t>居家生活平</t>
+          <t>居家生活右下</t>
         </is>
       </c>
       <c r="AP265" t="n">
@@ -49115,7 +49115,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>5162584</v>
+        <v>35741579</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49296,7 +49296,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>-23402236</v>
+        <v>10820435</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49477,7 +49477,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>11480318</v>
+        <v>43521268</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49658,7 +49658,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>22846065</v>
+        <v>55099017</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -49839,7 +49839,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>1542732</v>
+        <v>49312704</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50020,7 +50020,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>2508710</v>
+        <v>36545020</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50201,7 +50201,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>7732930</v>
+        <v>21925548</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50382,7 +50382,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>32679939</v>
+        <v>41958414</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>29532240</v>
+        <v>14137436</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -50744,7 +50744,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>24520022</v>
+        <v>-20854535</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -50925,7 +50925,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>15090033</v>
+        <v>-82954658</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>4504070</v>
+        <v>-109819858</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51249,12 +51249,12 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>6831</v>
+        <v>7701</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51430,12 +51430,12 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
@@ -51445,7 +51445,7 @@
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U279" t="n">
@@ -51468,7 +51468,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>3295</v>
+        <v>2273</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -51611,12 +51611,12 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
@@ -51626,7 +51626,7 @@
       </c>
       <c r="T280" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U280" t="n">
@@ -51649,7 +51649,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>2090</v>
+        <v>2150</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -51792,12 +51792,12 @@
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
@@ -51830,7 +51830,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>815</v>
+        <v>1835</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -51973,12 +51973,12 @@
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
@@ -51988,7 +51988,7 @@
       </c>
       <c r="T282" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U282" t="n">
@@ -52011,7 +52011,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>-1310</v>
+        <v>-123</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52154,12 +52154,12 @@
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
@@ -52169,7 +52169,7 @@
       </c>
       <c r="T283" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U283" t="n">
@@ -52192,7 +52192,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>-1174</v>
+        <v>0</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52335,12 +52335,12 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
@@ -52350,7 +52350,7 @@
       </c>
       <c r="T284" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U284" t="n">
@@ -52373,7 +52373,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52516,12 +52516,12 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
@@ -52531,7 +52531,7 @@
       </c>
       <c r="T285" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U285" t="n">
@@ -52554,7 +52554,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -52697,22 +52697,22 @@
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U286" t="n">
@@ -52725,7 +52725,7 @@
         <v>0</v>
       </c>
       <c r="X286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y286" t="inlineStr"/>
       <c r="Z286" t="inlineStr"/>
@@ -52735,7 +52735,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -52873,17 +52873,17 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
@@ -52906,7 +52906,7 @@
         <v>0</v>
       </c>
       <c r="X287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y287" t="inlineStr"/>
       <c r="Z287" t="inlineStr"/>
@@ -52916,7 +52916,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53054,27 +53054,27 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
           <t>0.02</t>
-        </is>
-      </c>
-      <c r="T288" t="inlineStr">
-        <is>
-          <t>0.01</t>
         </is>
       </c>
       <c r="U288" t="n">
@@ -53087,7 +53087,7 @@
         <v>0</v>
       </c>
       <c r="X288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y288" t="inlineStr"/>
       <c r="Z288" t="inlineStr"/>
@@ -53097,7 +53097,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53235,27 +53235,27 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T289" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U289" t="n">
@@ -53382,7 +53382,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="H290" t="n">
         <v>39</v>
@@ -53421,29 +53421,29 @@
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="U290" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V290" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="W290" t="n">
         <v>7</v>
@@ -53459,7 +53459,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>-82</v>
+        <v>-568</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -53563,7 +53563,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="H291" t="n">
         <v>39</v>
@@ -53597,34 +53597,34 @@
       </c>
       <c r="P291" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="U291" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V291" t="n">
-        <v>12</v>
+        <v>-8</v>
       </c>
       <c r="W291" t="n">
         <v>-4</v>
@@ -53640,7 +53640,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>-202</v>
+        <v>-448</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -53744,7 +53744,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="H292" t="n">
         <v>39.95</v>
@@ -53778,34 +53778,34 @@
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>-1.04</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="U292" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V292" t="n">
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="W292" t="n">
         <v>-21</v>
@@ -53821,7 +53821,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>-81</v>
+        <v>-365</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -53925,7 +53925,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="H293" t="n">
         <v>39.1</v>
@@ -53959,34 +53959,34 @@
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.91</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="U293" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V293" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="W293" t="n">
         <v>-2</v>
@@ -54002,7 +54002,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>-202</v>
+        <v>-871</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54106,7 +54106,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
         <v>40</v>
@@ -54140,40 +54140,40 @@
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="U294" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V294" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="W294" t="n">
         <v>-21</v>
       </c>
       <c r="X294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y294" t="inlineStr"/>
       <c r="Z294" t="inlineStr"/>
@@ -54183,7 +54183,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>-204</v>
+        <v>-753</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54286,11 +54286,11 @@
         <v>0.98</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>39.3</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>100</v>
+        <v>-0.77</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -54304,7 +54304,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="N295" t="n">
@@ -54317,31 +54317,31 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="U295" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V295" t="n">
         <v>14</v>
@@ -54360,7 +54360,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>-361</v>
+        <v>-749</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -54498,31 +54498,31 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S296" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="T296" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="U296" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V296" t="n">
         <v>9</v>
@@ -54541,7 +54541,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>-364</v>
+        <v>-1507</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -54679,31 +54679,31 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S297" t="inlineStr">
         <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
           <t>-1.32</t>
         </is>
       </c>
-      <c r="T297" t="inlineStr">
-        <is>
-          <t>-1.50</t>
-        </is>
-      </c>
       <c r="U297" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V297" t="n">
         <v>12</v>
@@ -54722,7 +54722,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>-122</v>
+        <v>-1190</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -54825,11 +54825,11 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>100</v>
+        <v>-3.59</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -54843,7 +54843,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="N298" t="n">
@@ -54856,31 +54856,31 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="U298" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V298" t="n">
         <v>18</v>
@@ -54899,7 +54899,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55042,26 +55042,26 @@
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>-1.60</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="U299" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V299" t="n">
         <v>0</v>
@@ -55080,7 +55080,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55223,26 +55223,26 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="U300" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V300" t="n">
         <v>7</v>
@@ -55261,7 +55261,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>-507</v>
+        <v>0</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55404,26 +55404,26 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>-1.52</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>-1.70</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="U301" t="n">
-        <v>-99</v>
+        <v>-95</v>
       </c>
       <c r="V301" t="n">
         <v>-7</v>
@@ -55442,7 +55442,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -55585,29 +55585,29 @@
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="T302" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U302" t="n">
         <v>65</v>
       </c>
       <c r="V302" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="W302" t="n">
         <v>46</v>
@@ -55615,15 +55615,23 @@
       <c r="X302" t="b">
         <v>0</v>
       </c>
-      <c r="Y302" t="inlineStr"/>
-      <c r="Z302" t="inlineStr"/>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA302" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>3853</v>
+        <v>1934</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -55761,34 +55769,34 @@
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="T303" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="U303" t="n">
         <v>65</v>
       </c>
       <c r="V303" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="W303" t="n">
         <v>34</v>
@@ -55804,7 +55812,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>2374</v>
+        <v>977</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -55942,34 +55950,34 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T304" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U304" t="n">
         <v>65</v>
       </c>
       <c r="V304" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="W304" t="n">
         <v>55</v>
@@ -55985,7 +55993,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>4122</v>
+        <v>2979</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56123,34 +56131,34 @@
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="T305" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="U305" t="n">
         <v>65</v>
       </c>
       <c r="V305" t="n">
-        <v>-3</v>
+        <v>-35</v>
       </c>
       <c r="W305" t="n">
         <v>12</v>
@@ -56166,7 +56174,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>73</v>
+        <v>-1474</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56304,34 +56312,34 @@
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
         <is>
+          <t>-1.05</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
           <t>-1.37</t>
-        </is>
-      </c>
-      <c r="T306" t="inlineStr">
-        <is>
-          <t>-1.62</t>
         </is>
       </c>
       <c r="U306" t="n">
         <v>65</v>
       </c>
       <c r="V306" t="n">
-        <v>11</v>
+        <v>-21</v>
       </c>
       <c r="W306" t="n">
         <v>24</v>
@@ -56347,7 +56355,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>-1796</v>
+        <v>-1533</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -56450,11 +56458,11 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>80.3</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>100</v>
+        <v>10.98</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -56468,7 +56476,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N307" t="n">
@@ -56481,27 +56489,27 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-1.45</t>
         </is>
       </c>
       <c r="U307" t="n">
@@ -56514,7 +56522,7 @@
         <v>40</v>
       </c>
       <c r="X307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y307" t="inlineStr"/>
       <c r="Z307" t="inlineStr"/>
@@ -56524,7 +56532,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>-1883</v>
+        <v>-1620</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -56628,7 +56636,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.59</v>
+        <v>0.92</v>
       </c>
       <c r="H308" t="n">
         <v>80.3</v>
@@ -56667,22 +56675,22 @@
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="T308" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="U308" t="n">
@@ -56695,7 +56703,7 @@
         <v>32</v>
       </c>
       <c r="X308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y308" t="inlineStr"/>
       <c r="Z308" t="inlineStr"/>
@@ -56705,7 +56713,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>-2160</v>
+        <v>-2118</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -56809,7 +56817,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="H309" t="n">
         <v>80.40000000000001</v>
@@ -56848,22 +56856,22 @@
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="T309" t="inlineStr">
         <is>
-          <t>-1.79</t>
+          <t>-1.59</t>
         </is>
       </c>
       <c r="U309" t="n">
@@ -56876,7 +56884,7 @@
         <v>-1</v>
       </c>
       <c r="X309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y309" t="inlineStr"/>
       <c r="Z309" t="inlineStr"/>
@@ -56886,7 +56894,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -56990,7 +56998,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H310" t="n">
         <v>81</v>
@@ -57029,29 +57037,29 @@
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="T310" t="inlineStr">
         <is>
-          <t>-1.84</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="U310" t="n">
         <v>65</v>
       </c>
       <c r="V310" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="W310" t="n">
         <v>-13</v>
@@ -57067,7 +57075,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>572</v>
+        <v>-359</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57171,7 +57179,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="H311" t="n">
         <v>81</v>
@@ -57205,34 +57213,34 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="T311" t="inlineStr">
         <is>
-          <t>-1.90</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="U311" t="n">
         <v>65</v>
       </c>
       <c r="V311" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="W311" t="n">
         <v>-25</v>
@@ -57248,7 +57256,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>445</v>
+        <v>-568</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -57352,7 +57360,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H312" t="n">
         <v>80.09999999999999</v>
@@ -57386,34 +57394,34 @@
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>-1.89</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="T312" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="U312" t="n">
         <v>65</v>
       </c>
       <c r="V312" t="n">
-        <v>20</v>
+        <v>-8</v>
       </c>
       <c r="W312" t="n">
         <v>-21</v>
@@ -57429,7 +57437,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>-346</v>
+        <v>-1132</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -57533,7 +57541,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="H313" t="n">
         <v>80</v>
@@ -57567,34 +57575,34 @@
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="U313" t="n">
         <v>65</v>
       </c>
       <c r="V313" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="W313" t="n">
         <v>-26</v>
@@ -57610,7 +57618,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>-519</v>
+        <v>-1356</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -57714,7 +57722,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="H314" t="n">
         <v>55.3</v>
@@ -57748,34 +57756,34 @@
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t>-3.01</t>
+          <t>-2.17</t>
         </is>
       </c>
       <c r="T314" t="inlineStr">
         <is>
-          <t>-3.22</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="U314" t="n">
         <v>-95</v>
       </c>
       <c r="V314" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="W314" t="n">
         <v>56</v>
@@ -57791,7 +57799,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>-403</v>
+        <v>2895</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -57895,7 +57903,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="H315" t="n">
         <v>57.3</v>
@@ -57929,34 +57937,34 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="T315" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="U315" t="n">
         <v>-95</v>
       </c>
       <c r="V315" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="W315" t="n">
         <v>46</v>
@@ -57972,7 +57980,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>-300</v>
+        <v>2830</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -58075,11 +58083,11 @@
         <v>1.32</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>100</v>
+        <v>-1.63</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -58093,7 +58101,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="N316" t="n">
@@ -58106,27 +58114,27 @@
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="U316" t="n">
@@ -58149,7 +58157,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>3247</v>
+        <v>2307</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -58287,12 +58295,12 @@
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -58302,12 +58310,12 @@
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="T317" t="inlineStr">
         <is>
-          <t>-3.34</t>
+          <t>-2.50</t>
         </is>
       </c>
       <c r="U317" t="n">
@@ -58330,7 +58338,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>3081</v>
+        <v>1731</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -58468,12 +58476,12 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -58483,12 +58491,12 @@
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>-3.37</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-2.51</t>
         </is>
       </c>
       <c r="U318" t="n">
@@ -58511,7 +58519,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>3082</v>
+        <v>1903</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -58649,27 +58657,27 @@
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S319" t="inlineStr">
         <is>
-          <t>-3.64</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="T319" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>-2.50</t>
         </is>
       </c>
       <c r="U319" t="n">
@@ -58692,7 +58700,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>-414</v>
+        <v>0</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -58830,27 +58838,27 @@
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>-3.68</t>
+          <t>-2.79</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -58873,7 +58881,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -58976,11 +58984,11 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>100</v>
+        <v>-0.36</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -58994,7 +59002,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="N321" t="n">
@@ -59007,27 +59015,27 @@
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t>-3.61</t>
+          <t>-2.77</t>
         </is>
       </c>
       <c r="T321" t="inlineStr">
         <is>
-          <t>-3.17</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="U321" t="n">
@@ -59050,7 +59058,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -59193,22 +59201,22 @@
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>-3.61</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="T322" t="inlineStr">
         <is>
-          <t>-3.06</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="U322" t="n">
@@ -59231,7 +59239,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>-526</v>
+        <v>0</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -59369,27 +59377,27 @@
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-2.58</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>-2.93</t>
+          <t>-2.12</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -59412,7 +59420,7 @@
         </is>
       </c>
       <c r="AB323" t="n">
-        <v>-1441</v>
+        <v>0</v>
       </c>
       <c r="AC323" t="inlineStr">
         <is>
@@ -59550,27 +59558,27 @@
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -59593,7 +59601,7 @@
         </is>
       </c>
       <c r="AB324" t="n">
-        <v>-1101</v>
+        <v>0</v>
       </c>
       <c r="AC324" t="inlineStr">
         <is>
@@ -59731,27 +59739,27 @@
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -59917,12 +59925,12 @@
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="S326" t="inlineStr">
@@ -59932,7 +59940,7 @@
       </c>
       <c r="T326" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="U326" t="n">
@@ -59955,7 +59963,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>-1299</v>
+        <v>179</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -60098,22 +60106,22 @@
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="U327" t="n">
@@ -60136,7 +60144,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>-784</v>
+        <v>436</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -60279,22 +60287,22 @@
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -60317,7 +60325,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>-545</v>
+        <v>929</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -60460,22 +60468,22 @@
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="T329" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U329" t="n">
@@ -60488,7 +60496,7 @@
         <v>37</v>
       </c>
       <c r="X329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y329" t="inlineStr"/>
       <c r="Z329" t="inlineStr"/>
@@ -60498,7 +60506,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -60641,22 +60649,22 @@
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U330" t="n">
@@ -60669,7 +60677,7 @@
         <v>50</v>
       </c>
       <c r="X330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y330" t="inlineStr"/>
       <c r="Z330" t="inlineStr"/>
@@ -60679,7 +60687,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>1671</v>
+        <v>665</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -60822,22 +60830,22 @@
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U331" t="n">
@@ -60850,7 +60858,7 @@
         <v>64</v>
       </c>
       <c r="X331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y331" t="inlineStr"/>
       <c r="Z331" t="inlineStr"/>
@@ -60860,7 +60868,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>2886</v>
+        <v>1157</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -61003,22 +61011,22 @@
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="S332" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
           <t>0.09</t>
-        </is>
-      </c>
-      <c r="T332" t="inlineStr">
-        <is>
-          <t>0.13</t>
         </is>
       </c>
       <c r="U332" t="n">
@@ -61041,7 +61049,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>1080</v>
+        <v>-509</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -61184,22 +61192,22 @@
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>-2.47</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U333" t="n">
@@ -61222,7 +61230,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>-451</v>
+        <v>-1444</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -61365,22 +61373,22 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U334" t="n">
@@ -61403,7 +61411,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>-1412</v>
+        <v>-2877</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -61541,27 +61549,27 @@
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="T335" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U335" t="n">
@@ -61584,7 +61592,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>-1126</v>
+        <v>-4147</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -61722,27 +61730,27 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T336" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="U336" t="n">
@@ -61765,7 +61773,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>-555</v>
+        <v>-2435</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -61903,27 +61911,27 @@
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T337" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U337" t="n">
@@ -61946,7 +61954,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>-317</v>
+        <v>-3093</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>
@@ -62084,27 +62092,27 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T338" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U338" t="n">
@@ -62263,12 +62271,12 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -62278,12 +62286,12 @@
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U339" t="n">
@@ -62407,11 +62415,11 @@
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>100</v>
+        <v>-2.1</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -62425,7 +62433,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="N340" t="n">
@@ -62438,12 +62446,12 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -62453,12 +62461,12 @@
       </c>
       <c r="S340" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="T340" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U340" t="n">
@@ -62617,27 +62625,27 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T341" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="U341" t="n">
@@ -62660,7 +62668,7 @@
         </is>
       </c>
       <c r="AB341" t="n">
-        <v>-409</v>
+        <v>0</v>
       </c>
       <c r="AC341" t="inlineStr">
         <is>
@@ -62796,27 +62804,27 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T342" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U342" t="n">
@@ -62839,7 +62847,7 @@
         </is>
       </c>
       <c r="AB342" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AC342" t="inlineStr">
         <is>
@@ -62975,27 +62983,27 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="U343" t="n">
@@ -63154,27 +63162,27 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T344" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="U344" t="n">
@@ -63298,11 +63306,11 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>29.55</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>100</v>
+        <v>-3.32</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -63316,7 +63324,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="N345" t="n">
@@ -63329,27 +63337,27 @@
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T345" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U345" t="n">
@@ -63473,11 +63481,11 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>29.55</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>100</v>
+        <v>-3.32</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -63491,7 +63499,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="N346" t="n">
@@ -63504,17 +63512,17 @@
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S346" t="inlineStr">
@@ -63524,7 +63532,7 @@
       </c>
       <c r="T346" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U346" t="n">
@@ -63688,22 +63696,22 @@
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T347" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U347" t="n">
@@ -63726,7 +63734,7 @@
         </is>
       </c>
       <c r="AB347" t="n">
-        <v>-386</v>
+        <v>0</v>
       </c>
       <c r="AC347" t="inlineStr">
         <is>
@@ -63867,22 +63875,22 @@
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U348" t="n">
@@ -63905,7 +63913,7 @@
         </is>
       </c>
       <c r="AB348" t="n">
-        <v>-1082</v>
+        <v>0</v>
       </c>
       <c r="AC348" t="inlineStr">
         <is>
@@ -64041,27 +64049,27 @@
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="T349" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U349" t="n">
@@ -64084,7 +64092,7 @@
         </is>
       </c>
       <c r="AB349" t="n">
-        <v>-247</v>
+        <v>0</v>
       </c>
       <c r="AC349" t="inlineStr">
         <is>
@@ -64271,7 +64279,7 @@
         </is>
       </c>
       <c r="AB350" t="n">
-        <v>-10405</v>
+        <v>-4023</v>
       </c>
       <c r="AC350" t="inlineStr">
         <is>
@@ -64460,7 +64468,7 @@
         </is>
       </c>
       <c r="AB351" t="n">
-        <v>-7596</v>
+        <v>4394</v>
       </c>
       <c r="AC351" t="inlineStr">
         <is>
@@ -64649,7 +64657,7 @@
         </is>
       </c>
       <c r="AB352" t="n">
-        <v>-7538</v>
+        <v>7577</v>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
@@ -64838,7 +64846,7 @@
         </is>
       </c>
       <c r="AB353" t="n">
-        <v>-7489</v>
+        <v>9674</v>
       </c>
       <c r="AC353" t="inlineStr">
         <is>
@@ -65027,7 +65035,7 @@
         </is>
       </c>
       <c r="AB354" t="n">
-        <v>6038</v>
+        <v>14763</v>
       </c>
       <c r="AC354" t="inlineStr">
         <is>
@@ -65216,7 +65224,7 @@
         </is>
       </c>
       <c r="AB355" t="n">
-        <v>3914</v>
+        <v>14145</v>
       </c>
       <c r="AC355" t="inlineStr">
         <is>
@@ -65405,7 +65413,7 @@
         </is>
       </c>
       <c r="AB356" t="n">
-        <v>13871</v>
+        <v>15409</v>
       </c>
       <c r="AC356" t="inlineStr">
         <is>
@@ -65586,7 +65594,7 @@
         </is>
       </c>
       <c r="AB357" t="n">
-        <v>5952</v>
+        <v>6122</v>
       </c>
       <c r="AC357" t="inlineStr">
         <is>
@@ -65767,7 +65775,7 @@
         </is>
       </c>
       <c r="AB358" t="n">
-        <v>11201</v>
+        <v>7724</v>
       </c>
       <c r="AC358" t="inlineStr">
         <is>
@@ -65948,7 +65956,7 @@
         </is>
       </c>
       <c r="AB359" t="n">
-        <v>3292</v>
+        <v>-567</v>
       </c>
       <c r="AC359" t="inlineStr">
         <is>
@@ -66129,7 +66137,7 @@
         </is>
       </c>
       <c r="AB360" t="n">
-        <v>2773</v>
+        <v>-5173</v>
       </c>
       <c r="AC360" t="inlineStr">
         <is>
@@ -66310,7 +66318,7 @@
         </is>
       </c>
       <c r="AB361" t="n">
-        <v>-970</v>
+        <v>-3172</v>
       </c>
       <c r="AC361" t="inlineStr">
         <is>
@@ -66491,7 +66499,7 @@
         </is>
       </c>
       <c r="AB362" t="n">
-        <v>21865952</v>
+        <v>57291536</v>
       </c>
       <c r="AC362" t="inlineStr">
         <is>
@@ -66672,7 +66680,7 @@
         </is>
       </c>
       <c r="AB363" t="n">
-        <v>7057144</v>
+        <v>49268669</v>
       </c>
       <c r="AC363" t="inlineStr">
         <is>
@@ -66853,7 +66861,7 @@
         </is>
       </c>
       <c r="AB364" t="n">
-        <v>-19908724</v>
+        <v>47147032</v>
       </c>
       <c r="AC364" t="inlineStr">
         <is>
@@ -67034,7 +67042,7 @@
         </is>
       </c>
       <c r="AB365" t="n">
-        <v>16956723</v>
+        <v>87459409</v>
       </c>
       <c r="AC365" t="inlineStr">
         <is>
@@ -67215,7 +67223,7 @@
         </is>
       </c>
       <c r="AB366" t="n">
-        <v>-22259816</v>
+        <v>96028809</v>
       </c>
       <c r="AC366" t="inlineStr">
         <is>
@@ -67396,7 +67404,7 @@
         </is>
       </c>
       <c r="AB367" t="n">
-        <v>15303474</v>
+        <v>95735469</v>
       </c>
       <c r="AC367" t="inlineStr">
         <is>
@@ -67577,7 +67585,7 @@
         </is>
       </c>
       <c r="AB368" t="n">
-        <v>18468861</v>
+        <v>68481142</v>
       </c>
       <c r="AC368" t="inlineStr">
         <is>
@@ -67758,7 +67766,7 @@
         </is>
       </c>
       <c r="AB369" t="n">
-        <v>64471341</v>
+        <v>89922376</v>
       </c>
       <c r="AC369" t="inlineStr">
         <is>
@@ -67939,7 +67947,7 @@
         </is>
       </c>
       <c r="AB370" t="n">
-        <v>51752282</v>
+        <v>46841651</v>
       </c>
       <c r="AC370" t="inlineStr">
         <is>
@@ -68120,7 +68128,7 @@
         </is>
       </c>
       <c r="AB371" t="n">
-        <v>52033825</v>
+        <v>9858586</v>
       </c>
       <c r="AC371" t="inlineStr">
         <is>
@@ -68301,7 +68309,7 @@
         </is>
       </c>
       <c r="AB372" t="n">
-        <v>53817284</v>
+        <v>16579333</v>
       </c>
       <c r="AC372" t="inlineStr">
         <is>
@@ -68482,7 +68490,7 @@
         </is>
       </c>
       <c r="AB373" t="n">
-        <v>28679713</v>
+        <v>-37852192</v>
       </c>
       <c r="AC373" t="inlineStr">
         <is>

--- a/Result/checksun/居家生活.xlsx
+++ b/Result/checksun/居家生活.xlsx
@@ -722,20 +722,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -941,16 +941,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,20 +1817,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2258,17 +2258,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3127,16 +3127,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="B13" t="n">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1</v>
-      </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>-2</v>
@@ -3784,16 +3784,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4003,20 +4003,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="n">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4441,20 +4441,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>-19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4663,17 +4663,17 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4879,20 +4879,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5532,16 +5532,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5755,16 +5755,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>30</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -5974,16 +5974,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6196,13 +6196,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6634,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -6850,20 +6850,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7072,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7288,20 +7288,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7944,13 +7944,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8402,13 +8402,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8629,17 +8629,17 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -8856,17 +8856,17 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>-50</v>
+        <v>-2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -9080,16 +9080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9307,20 +9307,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>75</v>
+        <v>-48</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9537,13 +9537,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -9761,20 +9761,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11287,13 +11287,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -11725,17 +11725,17 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11944,13 +11944,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -12163,13 +12163,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -12813,20 +12813,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+      <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="B57" t="n">
-        <v>14</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-5</v>
-      </c>
       <c r="D57" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -13032,16 +13032,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
         <v>-1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13251,20 +13251,20 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -13470,16 +13470,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13689,20 +13689,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13908,20 +13908,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14127,20 +14127,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14346,20 +14346,20 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14565,20 +14565,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15218,16 +15218,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -15437,20 +15437,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -15656,20 +15656,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D70" t="n">
         <v>-4</v>
       </c>
-      <c r="D70" t="n">
-        <v>-2</v>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15875,16 +15875,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16094,20 +16094,20 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -16316,17 +16316,17 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -16532,20 +16532,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C74" t="n">
         <v>-3</v>
       </c>
       <c r="D74" t="n">
-        <v>99</v>
+        <v>-29</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16751,20 +16751,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16970,20 +16970,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -17626,13 +17626,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17845,17 +17845,17 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -18283,13 +18283,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
         <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18499,20 +18499,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" t="n">
         <v>-1</v>
       </c>
-      <c r="B83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -18718,10 +18718,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
@@ -18937,20 +18937,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>-3</v>
       </c>
-      <c r="B85" t="n">
-        <v>16</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D85" t="n">
-        <v>16</v>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19156,20 +19156,20 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19375,20 +19375,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -20028,20 +20028,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -20249,20 +20249,20 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -20469,13 +20469,13 @@
         <v>-1</v>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C92" t="n">
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20686,13 +20686,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -20903,13 +20903,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -21117,20 +21117,20 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>5</v>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -21334,16 +21334,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -21554,13 +21554,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -21768,20 +21768,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22439,10 +22439,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -22658,16 +22658,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22880,13 +22880,13 @@
         <v>-3</v>
       </c>
       <c r="B103" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23096,16 +23096,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" t="n">
         <v>-2</v>
       </c>
-      <c r="B104" t="n">
-        <v>8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -23315,16 +23315,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B105" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C105" t="n">
         <v>-2</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23534,13 +23534,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -23753,20 +23753,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -24191,20 +24191,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24844,20 +24844,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -25063,16 +25063,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C113" t="n">
         <v>-1</v>
       </c>
       <c r="D113" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25282,20 +25282,20 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
         <v>2</v>
       </c>
-      <c r="B114" t="n">
-        <v>11</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3</v>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -25501,16 +25501,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25720,16 +25720,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -25939,13 +25939,13 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B117" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -26158,20 +26158,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26377,20 +26377,20 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26596,20 +26596,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27249,16 +27249,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B123" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -27468,20 +27468,20 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B124" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C124" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -27687,10 +27687,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="n">
         <v>-1</v>
@@ -27906,13 +27906,13 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D126" t="n">
         <v>5</v>
@@ -28125,20 +28125,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -28344,16 +28344,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -28563,20 +28563,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28785,17 +28785,17 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -29001,20 +29001,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29654,20 +29654,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B134" t="n">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>-22</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -29885,20 +29885,20 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="D135" t="n">
-        <v>-7</v>
+        <v>-32</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -30119,17 +30119,17 @@
         <v>5</v>
       </c>
       <c r="B136" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C136" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D136" t="n">
-        <v>-24</v>
+        <v>-2</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -30347,20 +30347,20 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B137" t="n">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C137" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -30578,20 +30578,20 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B138" t="n">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D138" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -30809,16 +30809,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B139" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -31032,20 +31032,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B140" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D140" t="n">
-        <v>96</v>
+        <v>-7</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -31255,20 +31255,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -31478,20 +31478,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -32146,13 +32146,13 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -32365,13 +32365,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
         <v>-1</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -32582,13 +32582,13 @@
         <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -32798,20 +32798,20 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -33020,17 +33020,17 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D149" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -33236,16 +33236,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B150" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33455,20 +33455,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>30</v>
+        <v>-9</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33677,17 +33677,17 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33893,20 +33893,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34549,17 +34549,17 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -34765,16 +34765,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B157" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -35206,13 +35206,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35425,13 +35425,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -35860,20 +35860,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
         <v>-2</v>
       </c>
-      <c r="B162" t="n">
-        <v>8</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D162" t="n">
-        <v>8</v>
-      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -36082,10 +36082,10 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -36298,20 +36298,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36954,17 +36954,17 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -37168,16 +37168,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B168" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C168" t="n">
         <v>-1</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37385,20 +37385,20 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -37605,13 +37605,13 @@
         <v>-2</v>
       </c>
       <c r="B170" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37822,13 +37822,13 @@
         <v>-2</v>
       </c>
       <c r="B171" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -38039,10 +38039,10 @@
         <v>-2</v>
       </c>
       <c r="B172" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C172" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D172" t="n">
         <v>14</v>
@@ -38253,20 +38253,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C173" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38473,17 +38473,17 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -38687,20 +38687,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39337,17 +39337,17 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -39553,20 +39553,20 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D179" t="n">
-        <v>-6</v>
+        <v>46</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -39772,20 +39772,20 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>-20</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -39991,20 +39991,20 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>-58</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -40210,20 +40210,20 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B182" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -40432,13 +40432,13 @@
         <v>-4</v>
       </c>
       <c r="B183" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C183" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -40648,20 +40648,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B184" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C184" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D184" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40867,20 +40867,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -41089,17 +41089,17 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41739,20 +41739,20 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>-6</v>
+        <v>-19</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -41958,16 +41958,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -42180,13 +42180,13 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C191" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -42396,16 +42396,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -42615,16 +42615,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B193" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>-47</v>
+        <v>-16</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -42834,16 +42834,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B194" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -43053,20 +43053,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>145</v>
+        <v>-37</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -43272,13 +43272,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -43491,20 +43491,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -44147,7 +44147,7 @@
         <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -44378,13 +44378,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44605,13 +44605,13 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44824,7 +44824,7 @@
         <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -45043,7 +45043,7 @@
         <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -45262,13 +45262,13 @@
         <v>0</v>
       </c>
       <c r="B205" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -45481,17 +45481,17 @@
         <v>0</v>
       </c>
       <c r="B206" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45700,17 +45700,17 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -45919,17 +45919,17 @@
         <v>0</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46569,20 +46569,20 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B211" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D211" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -46788,20 +46788,20 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B212" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -47007,13 +47007,13 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B213" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C213" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
         <v>4</v>
@@ -47226,16 +47226,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B214" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -47445,16 +47445,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B215" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -47664,16 +47664,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -47886,17 +47886,17 @@
         <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D217" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -48102,16 +48102,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48321,20 +48321,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -48974,16 +48974,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B222" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C222" t="n">
         <v>-1</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -49193,16 +49193,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B223" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C223" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -49415,13 +49415,13 @@
         <v>-1</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -49631,20 +49631,20 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B225" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D225" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -49850,16 +49850,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
+        <v>0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5</v>
+      </c>
+      <c r="C226" t="n">
         <v>2</v>
       </c>
-      <c r="B226" t="n">
-        <v>18</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-1</v>
-      </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -50069,20 +50069,20 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B227" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D227" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -50288,20 +50288,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
+        <v>3</v>
+      </c>
+      <c r="B228" t="n">
+        <v>14</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
         <v>-1</v>
       </c>
-      <c r="B228" t="n">
-        <v>19</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>19</v>
-      </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -50507,20 +50507,20 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -50729,17 +50729,17 @@
         <v>0</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -51382,17 +51382,17 @@
         <v>0</v>
       </c>
       <c r="B233" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D233" t="n">
-        <v>65</v>
+        <v>-38</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -51594,16 +51594,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -51807,20 +51807,20 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -53708,20 +53708,20 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B244" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C244" t="n">
         <v>5</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -53931,20 +53931,20 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C245" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>-23</v>
+        <v>-4</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -54150,16 +54150,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B246" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C246" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -54369,20 +54369,20 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B247" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -54588,16 +54588,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B248" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -54807,16 +54807,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B249" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -55026,20 +55026,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B250" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -55245,20 +55245,20 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -55464,20 +55464,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -56117,16 +56117,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B255" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -56339,7 +56339,7 @@
         <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -56558,10 +56558,10 @@
         <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>-1</v>
@@ -56774,20 +56774,20 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -56996,7 +56996,7 @@
         <v>0</v>
       </c>
       <c r="B259" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -57215,10 +57215,10 @@
         <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
         <v>-2</v>
@@ -57431,20 +57431,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C261" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57653,13 +57653,13 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -57872,17 +57872,17 @@
         <v>0</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -58522,20 +58522,20 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -60855,16 +60855,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -61086,20 +61086,20 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -61773,10 +61773,10 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D281" t="n">
-        <v>-64</v>
+        <v>-20</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -61990,20 +61990,20 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B282" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C282" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>-3</v>
+        <v>-37</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -62217,20 +62217,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B283" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62436,16 +62436,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -62655,20 +62655,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -63736,14 +63736,14 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -63945,16 +63945,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B291" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -64167,10 +64167,10 @@
         <v>-2</v>
       </c>
       <c r="B292" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -64381,20 +64381,20 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B293" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C293" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -64598,20 +64598,20 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
+        <v>1</v>
+      </c>
+      <c r="B294" t="n">
         <v>8</v>
       </c>
-      <c r="B294" t="n">
-        <v>11</v>
-      </c>
       <c r="C294" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D294" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -64815,13 +64815,13 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -65032,20 +65032,20 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -65678,13 +65678,13 @@
         <v>0</v>
       </c>
       <c r="B299" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -65894,20 +65894,20 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B300" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D300" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
@@ -66113,16 +66113,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B301" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C301" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -66335,17 +66335,17 @@
         <v>-1</v>
       </c>
       <c r="B302" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -66551,16 +66551,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B303" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -66770,16 +66770,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B304" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C304" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D304" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -66992,17 +66992,17 @@
         <v>0</v>
       </c>
       <c r="B305" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>19</v>
+        <v>-8</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
@@ -67211,13 +67211,13 @@
         <v>0</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -67430,17 +67430,17 @@
         <v>0</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
@@ -70389,20 +70389,20 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B321" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
@@ -70611,17 +70611,17 @@
         <v>-1</v>
       </c>
       <c r="B322" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
@@ -70827,20 +70827,20 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B323" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C323" t="n">
         <v>-1</v>
       </c>
       <c r="D323" t="n">
-        <v>-3</v>
+        <v>-35</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
@@ -71046,20 +71046,20 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B324" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -71268,17 +71268,17 @@
         <v>0</v>
       </c>
       <c r="B325" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
@@ -71487,13 +71487,13 @@
         <v>-1</v>
       </c>
       <c r="B326" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -71706,13 +71706,13 @@
         <v>-1</v>
       </c>
       <c r="B327" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C327" t="n">
         <v>-1</v>
       </c>
       <c r="D327" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -71925,17 +71925,17 @@
         <v>0</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
@@ -72144,17 +72144,17 @@
         <v>0</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -72794,20 +72794,20 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -73017,13 +73017,13 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
@@ -73239,13 +73239,13 @@
         <v>0</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -73455,16 +73455,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -73674,13 +73674,13 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
+        <v>0</v>
+      </c>
+      <c r="B336" t="n">
         <v>1</v>
       </c>
-      <c r="B336" t="n">
-        <v>2</v>
-      </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -73893,16 +73893,16 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="C337" t="n">
         <v>2</v>
       </c>
-      <c r="C337" t="n">
-        <v>0</v>
-      </c>
       <c r="D337" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -74115,17 +74115,17 @@
         <v>0</v>
       </c>
       <c r="B338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -74334,10 +74334,10 @@
         <v>0</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -74550,16 +74550,16 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
